--- a/mscript/LockgMgr.xlsx
+++ b/mscript/LockgMgr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjc1gr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARTool\MScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDE496A-0BDF-4889-A953-C970B115F442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AECEEE-48FE-4A70-A855-E32806842A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>Status</t>
   </si>
@@ -297,16 +297,19 @@
     <t>In5</t>
   </si>
   <si>
-    <t>In6</t>
-  </si>
-  <si>
-    <t>In7</t>
-  </si>
-  <si>
     <t>SWC1</t>
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Ou1</t>
+  </si>
+  <si>
+    <t>Ou2</t>
   </si>
 </sst>
 </file>
@@ -698,13 +701,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1168,12 +1171,12 @@
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
-      <c r="I7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="27"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
@@ -1259,9 +1262,9 @@
       <c r="B13" s="21"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="38"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="35">
         <v>1</v>
@@ -1278,11 +1281,11 @@
       <c r="B14" s="21"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="37"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="38"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="30"/>
@@ -1295,7 +1298,7 @@
       <c r="B15" s="21"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="38"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="28"/>
       <c r="G15" s="30"/>
       <c r="H15" s="29"/>
@@ -1310,7 +1313,7 @@
       <c r="B16" s="21"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="38"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="28"/>
       <c r="G16" s="30"/>
       <c r="H16" s="29"/>
@@ -1325,7 +1328,7 @@
       <c r="B17" s="21"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="38"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="28"/>
       <c r="G17" s="30"/>
       <c r="H17" s="29"/>
@@ -1340,7 +1343,7 @@
       <c r="B18" s="21"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="28"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29"/>
@@ -1355,7 +1358,7 @@
       <c r="B19" s="21"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="38"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="32"/>
       <c r="G19" s="34"/>
       <c r="H19" s="29"/>
@@ -1665,7 +1668,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1740,10 +1743,10 @@
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>39</v>
@@ -1782,10 +1785,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>40</v>
@@ -1824,10 +1827,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>41</v>
@@ -1866,10 +1869,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>42</v>
@@ -1908,10 +1911,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>43</v>
@@ -1950,16 +1953,16 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>23</v>
@@ -1992,16 +1995,16 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="A8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>23</v>
